--- a/src/main/resources/template/SelfCheck-Report.xlsx
+++ b/src/main/resources/template/SelfCheck-Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\service\osc\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayden\Downloads\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F96882-79AE-4030-A0A8-FB91677B1DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D973ADB2-457F-434E-9535-1AF2BA224941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="5190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Self-Check" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="396">
   <si>
     <t>ID</t>
   </si>
@@ -1232,6 +1232,14 @@
   </si>
   <si>
     <t>Binary Name or Source Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exclude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning message</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1371,23 +1379,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1400,9 +1408,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,11 +1700,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M498"/>
+  <dimension ref="A1:O498"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1710,9 +1713,11 @@
     <col min="5" max="7" width="20.75" customWidth="1"/>
     <col min="8" max="9" width="30.75" customWidth="1"/>
     <col min="10" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1740,20 +1745,26 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1767,12 +1778,14 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="6"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1782,12 +1795,14 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="6"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1797,12 +1812,14 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1812,8 +1829,10 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1827,8 +1846,10 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1842,8 +1863,10 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1857,8 +1880,10 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1872,8 +1897,10 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1887,8 +1914,10 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1902,8 +1931,10 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1917,8 +1948,10 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1932,8 +1965,10 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1947,8 +1982,10 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1962,8 +1999,10 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1977,8 +2016,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1992,8 +2033,10 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2007,8 +2050,10 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2022,8 +2067,10 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2037,8 +2084,10 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2052,8 +2101,10 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2067,8 +2118,10 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2082,8 +2135,10 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2097,8 +2152,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2112,8 +2169,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2127,8 +2186,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2142,8 +2203,10 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2157,8 +2220,10 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2172,8 +2237,10 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2187,8 +2254,10 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2202,8 +2271,10 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2217,8 +2288,10 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2232,8 +2305,10 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2247,8 +2322,10 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2262,8 +2339,10 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2277,8 +2356,10 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2292,8 +2373,10 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2307,8 +2390,10 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2322,8 +2407,10 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2337,8 +2424,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2352,8 +2441,10 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2367,8 +2458,10 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2382,8 +2475,10 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2397,8 +2492,10 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2412,8 +2509,10 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2427,8 +2526,10 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2442,8 +2543,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2457,8 +2560,10 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2472,8 +2577,10 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2487,8 +2594,10 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2502,8 +2611,10 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2517,8 +2628,10 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2532,8 +2645,10 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2547,8 +2662,10 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2562,8 +2679,10 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2577,8 +2696,10 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2592,8 +2713,10 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2607,8 +2730,10 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2622,8 +2747,10 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2637,8 +2764,10 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2652,8 +2781,10 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2667,8 +2798,10 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2682,8 +2815,10 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2697,8 +2832,10 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2712,8 +2849,10 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2727,8 +2866,10 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2742,8 +2883,10 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2757,8 +2900,10 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2772,8 +2917,10 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2787,8 +2934,10 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2802,8 +2951,10 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2817,8 +2968,10 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2832,8 +2985,10 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2847,8 +3002,10 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2862,8 +3019,10 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2877,8 +3036,10 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2892,8 +3053,10 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2907,8 +3070,10 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2922,8 +3087,10 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2937,8 +3104,10 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2952,8 +3121,10 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2967,8 +3138,10 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2982,8 +3155,10 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2997,8 +3172,10 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -3012,8 +3189,10 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -3027,8 +3206,10 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -3042,8 +3223,10 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -3057,8 +3240,10 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -3072,8 +3257,10 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -3087,8 +3274,10 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -3102,8 +3291,10 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -3117,8 +3308,10 @@
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -3132,8 +3325,10 @@
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3147,8 +3342,10 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3162,8 +3359,10 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -3177,8 +3376,10 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -3192,8 +3393,10 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -3207,8 +3410,10 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3222,8 +3427,10 @@
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3237,8 +3444,10 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3252,8 +3461,10 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3267,8 +3478,10 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3282,8 +3495,10 @@
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3297,8 +3512,10 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3312,8 +3529,10 @@
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3327,8 +3546,10 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3342,8 +3563,10 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -3357,8 +3580,10 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -3372,8 +3597,10 @@
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -3387,8 +3614,10 @@
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3402,8 +3631,10 @@
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3417,8 +3648,10 @@
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3432,8 +3665,10 @@
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3447,8 +3682,10 @@
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3462,8 +3699,10 @@
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3477,8 +3716,10 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3492,8 +3733,10 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3507,8 +3750,10 @@
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3522,8 +3767,10 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3537,8 +3784,10 @@
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3552,8 +3801,10 @@
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3567,8 +3818,10 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3582,8 +3835,10 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3597,8 +3852,10 @@
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3612,8 +3869,10 @@
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3627,8 +3886,10 @@
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3642,8 +3903,10 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3657,8 +3920,10 @@
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3672,8 +3937,10 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3687,8 +3954,10 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3702,8 +3971,10 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3717,8 +3988,10 @@
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3732,8 +4005,10 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -3747,8 +4022,10 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3762,8 +4039,10 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3777,8 +4056,10 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -3792,8 +4073,10 @@
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3807,8 +4090,10 @@
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -3822,8 +4107,10 @@
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -3837,8 +4124,10 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -3852,8 +4141,10 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -3867,8 +4158,10 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -3882,8 +4175,10 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -3897,8 +4192,10 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -3912,8 +4209,10 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -3927,8 +4226,10 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -3942,8 +4243,10 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -3957,8 +4260,10 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -3972,8 +4277,10 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -3987,8 +4294,10 @@
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -4002,8 +4311,10 @@
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -4017,8 +4328,10 @@
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -4032,8 +4345,10 @@
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -4047,8 +4362,10 @@
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -4062,8 +4379,10 @@
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -4077,8 +4396,10 @@
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -4092,8 +4413,10 @@
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -4107,8 +4430,10 @@
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -4122,8 +4447,10 @@
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -4137,8 +4464,10 @@
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -4152,8 +4481,10 @@
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -4167,8 +4498,10 @@
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -4182,8 +4515,10 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
       <c r="M163" s="6"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -4197,8 +4532,10 @@
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -4212,8 +4549,10 @@
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="6"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -4227,8 +4566,10 @@
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -4242,8 +4583,10 @@
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -4257,8 +4600,10 @@
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -4272,8 +4617,10 @@
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -4287,8 +4634,10 @@
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -4302,8 +4651,10 @@
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -4317,8 +4668,10 @@
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
       <c r="M172" s="6"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -4332,8 +4685,10 @@
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -4347,8 +4702,10 @@
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -4362,8 +4719,10 @@
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
       <c r="M175" s="6"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -4377,8 +4736,10 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -4392,8 +4753,10 @@
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -4407,8 +4770,10 @@
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -4422,8 +4787,10 @@
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="6"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -4437,8 +4804,10 @@
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -4452,8 +4821,10 @@
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -4467,8 +4838,10 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -4482,8 +4855,10 @@
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -4497,8 +4872,10 @@
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4512,8 +4889,10 @@
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -4527,8 +4906,10 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -4542,8 +4923,10 @@
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -4557,8 +4940,10 @@
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -4572,8 +4957,10 @@
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -4587,8 +4974,10 @@
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -4602,8 +4991,10 @@
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
       <c r="M191" s="6"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -4617,8 +5008,10 @@
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -4632,8 +5025,10 @@
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -4647,8 +5042,10 @@
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
       <c r="M194" s="6"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -4662,8 +5059,10 @@
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
       <c r="M195" s="6"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -4677,8 +5076,10 @@
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
       <c r="M196" s="6"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -4692,8 +5093,10 @@
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
       <c r="M197" s="6"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -4707,8 +5110,10 @@
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
       <c r="M198" s="6"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -4722,8 +5127,10 @@
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
       <c r="M199" s="6"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -4737,8 +5144,10 @@
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
       <c r="M200" s="6"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -4752,8 +5161,10 @@
       <c r="K201" s="6"/>
       <c r="L201" s="6"/>
       <c r="M201" s="6"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -4767,8 +5178,10 @@
       <c r="K202" s="6"/>
       <c r="L202" s="6"/>
       <c r="M202" s="6"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -4782,8 +5195,10 @@
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -4797,8 +5212,10 @@
       <c r="K204" s="6"/>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -4812,8 +5229,10 @@
       <c r="K205" s="6"/>
       <c r="L205" s="6"/>
       <c r="M205" s="6"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -4827,8 +5246,10 @@
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
       <c r="M206" s="6"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -4842,8 +5263,10 @@
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -4857,8 +5280,10 @@
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -4872,8 +5297,10 @@
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -4887,8 +5314,10 @@
       <c r="K210" s="6"/>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -4902,8 +5331,10 @@
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -4917,8 +5348,10 @@
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -4932,8 +5365,10 @@
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -4947,8 +5382,10 @@
       <c r="K214" s="6"/>
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -4962,8 +5399,10 @@
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -4977,8 +5416,10 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -4992,8 +5433,10 @@
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -5007,8 +5450,10 @@
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
       <c r="M218" s="6"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -5022,8 +5467,10 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -5037,8 +5484,10 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -5052,8 +5501,10 @@
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -5067,8 +5518,10 @@
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -5082,8 +5535,10 @@
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -5097,8 +5552,10 @@
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -5112,8 +5569,10 @@
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -5127,8 +5586,10 @@
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -5142,8 +5603,10 @@
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -5157,8 +5620,10 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -5172,8 +5637,10 @@
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -5187,8 +5654,10 @@
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -5202,8 +5671,10 @@
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -5217,8 +5688,10 @@
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -5232,8 +5705,10 @@
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -5247,8 +5722,10 @@
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N234" s="6"/>
+      <c r="O234" s="6"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -5262,8 +5739,10 @@
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -5277,8 +5756,10 @@
       <c r="K236" s="6"/>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -5292,8 +5773,10 @@
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -5307,8 +5790,10 @@
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -5322,8 +5807,10 @@
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -5337,8 +5824,10 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -5352,8 +5841,10 @@
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -5367,8 +5858,10 @@
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -5382,8 +5875,10 @@
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -5397,8 +5892,10 @@
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -5412,8 +5909,10 @@
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -5427,8 +5926,10 @@
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -5442,8 +5943,10 @@
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -5457,8 +5960,10 @@
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -5472,8 +5977,10 @@
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -5487,8 +5994,10 @@
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N250" s="6"/>
+      <c r="O250" s="6"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -5502,8 +6011,10 @@
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N251" s="6"/>
+      <c r="O251" s="6"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -5517,8 +6028,10 @@
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N252" s="6"/>
+      <c r="O252" s="6"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -5532,8 +6045,10 @@
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N253" s="6"/>
+      <c r="O253" s="6"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -5547,8 +6062,10 @@
       <c r="K254" s="6"/>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N254" s="6"/>
+      <c r="O254" s="6"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -5562,8 +6079,10 @@
       <c r="K255" s="6"/>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -5577,8 +6096,10 @@
       <c r="K256" s="6"/>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N256" s="6"/>
+      <c r="O256" s="6"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -5592,8 +6113,10 @@
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -5607,8 +6130,10 @@
       <c r="K258" s="6"/>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -5622,8 +6147,10 @@
       <c r="K259" s="6"/>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -5637,8 +6164,10 @@
       <c r="K260" s="6"/>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -5652,8 +6181,10 @@
       <c r="K261" s="6"/>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N261" s="6"/>
+      <c r="O261" s="6"/>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -5667,8 +6198,10 @@
       <c r="K262" s="6"/>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N262" s="6"/>
+      <c r="O262" s="6"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -5682,8 +6215,10 @@
       <c r="K263" s="6"/>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N263" s="6"/>
+      <c r="O263" s="6"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -5697,8 +6232,10 @@
       <c r="K264" s="6"/>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N264" s="6"/>
+      <c r="O264" s="6"/>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -5712,8 +6249,10 @@
       <c r="K265" s="6"/>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N265" s="6"/>
+      <c r="O265" s="6"/>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -5727,8 +6266,10 @@
       <c r="K266" s="6"/>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -5742,8 +6283,10 @@
       <c r="K267" s="6"/>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -5757,8 +6300,10 @@
       <c r="K268" s="6"/>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -5772,8 +6317,10 @@
       <c r="K269" s="6"/>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -5787,8 +6334,10 @@
       <c r="K270" s="6"/>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -5802,8 +6351,10 @@
       <c r="K271" s="6"/>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N271" s="6"/>
+      <c r="O271" s="6"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -5817,8 +6368,10 @@
       <c r="K272" s="6"/>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -5832,8 +6385,10 @@
       <c r="K273" s="6"/>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -5847,8 +6402,10 @@
       <c r="K274" s="6"/>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -5862,8 +6419,10 @@
       <c r="K275" s="6"/>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N275" s="6"/>
+      <c r="O275" s="6"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -5877,8 +6436,10 @@
       <c r="K276" s="6"/>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N276" s="6"/>
+      <c r="O276" s="6"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -5892,8 +6453,10 @@
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N277" s="6"/>
+      <c r="O277" s="6"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -5907,8 +6470,10 @@
       <c r="K278" s="6"/>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N278" s="6"/>
+      <c r="O278" s="6"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -5922,8 +6487,10 @@
       <c r="K279" s="6"/>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N279" s="6"/>
+      <c r="O279" s="6"/>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -5937,8 +6504,10 @@
       <c r="K280" s="6"/>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N280" s="6"/>
+      <c r="O280" s="6"/>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -5952,8 +6521,10 @@
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N281" s="6"/>
+      <c r="O281" s="6"/>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -5967,8 +6538,10 @@
       <c r="K282" s="6"/>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N282" s="6"/>
+      <c r="O282" s="6"/>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -5982,8 +6555,10 @@
       <c r="K283" s="6"/>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N283" s="6"/>
+      <c r="O283" s="6"/>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -5997,8 +6572,10 @@
       <c r="K284" s="6"/>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N284" s="6"/>
+      <c r="O284" s="6"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -6012,8 +6589,10 @@
       <c r="K285" s="6"/>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N285" s="6"/>
+      <c r="O285" s="6"/>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -6027,8 +6606,10 @@
       <c r="K286" s="6"/>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N286" s="6"/>
+      <c r="O286" s="6"/>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -6042,8 +6623,10 @@
       <c r="K287" s="6"/>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N287" s="6"/>
+      <c r="O287" s="6"/>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -6057,8 +6640,10 @@
       <c r="K288" s="6"/>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N288" s="6"/>
+      <c r="O288" s="6"/>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -6072,8 +6657,10 @@
       <c r="K289" s="6"/>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N289" s="6"/>
+      <c r="O289" s="6"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -6087,8 +6674,10 @@
       <c r="K290" s="6"/>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N290" s="6"/>
+      <c r="O290" s="6"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -6102,8 +6691,10 @@
       <c r="K291" s="6"/>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N291" s="6"/>
+      <c r="O291" s="6"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -6117,8 +6708,10 @@
       <c r="K292" s="6"/>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N292" s="6"/>
+      <c r="O292" s="6"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -6132,8 +6725,10 @@
       <c r="K293" s="6"/>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N293" s="6"/>
+      <c r="O293" s="6"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -6147,8 +6742,10 @@
       <c r="K294" s="6"/>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N294" s="6"/>
+      <c r="O294" s="6"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -6162,8 +6759,10 @@
       <c r="K295" s="6"/>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N295" s="6"/>
+      <c r="O295" s="6"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -6177,8 +6776,10 @@
       <c r="K296" s="6"/>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N296" s="6"/>
+      <c r="O296" s="6"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -6192,8 +6793,10 @@
       <c r="K297" s="6"/>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N297" s="6"/>
+      <c r="O297" s="6"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -6207,8 +6810,10 @@
       <c r="K298" s="6"/>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N298" s="6"/>
+      <c r="O298" s="6"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -6222,8 +6827,10 @@
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N299" s="6"/>
+      <c r="O299" s="6"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -6237,8 +6844,10 @@
       <c r="K300" s="6"/>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N300" s="6"/>
+      <c r="O300" s="6"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -6252,8 +6861,10 @@
       <c r="K301" s="6"/>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N301" s="6"/>
+      <c r="O301" s="6"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -6267,8 +6878,10 @@
       <c r="K302" s="6"/>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N302" s="6"/>
+      <c r="O302" s="6"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -6282,8 +6895,10 @@
       <c r="K303" s="6"/>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N303" s="6"/>
+      <c r="O303" s="6"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -6297,8 +6912,10 @@
       <c r="K304" s="6"/>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N304" s="6"/>
+      <c r="O304" s="6"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -6312,8 +6929,10 @@
       <c r="K305" s="6"/>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N305" s="6"/>
+      <c r="O305" s="6"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -6327,8 +6946,10 @@
       <c r="K306" s="6"/>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N306" s="6"/>
+      <c r="O306" s="6"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -6342,8 +6963,10 @@
       <c r="K307" s="6"/>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N307" s="6"/>
+      <c r="O307" s="6"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -6357,8 +6980,10 @@
       <c r="K308" s="6"/>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N308" s="6"/>
+      <c r="O308" s="6"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -6372,8 +6997,10 @@
       <c r="K309" s="6"/>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N309" s="6"/>
+      <c r="O309" s="6"/>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -6387,8 +7014,10 @@
       <c r="K310" s="6"/>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N310" s="6"/>
+      <c r="O310" s="6"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -6402,8 +7031,10 @@
       <c r="K311" s="6"/>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N311" s="6"/>
+      <c r="O311" s="6"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -6417,8 +7048,10 @@
       <c r="K312" s="6"/>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N312" s="6"/>
+      <c r="O312" s="6"/>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -6432,8 +7065,10 @@
       <c r="K313" s="6"/>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N313" s="6"/>
+      <c r="O313" s="6"/>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -6447,8 +7082,10 @@
       <c r="K314" s="6"/>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N314" s="6"/>
+      <c r="O314" s="6"/>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -6462,8 +7099,10 @@
       <c r="K315" s="6"/>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N315" s="6"/>
+      <c r="O315" s="6"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -6477,8 +7116,10 @@
       <c r="K316" s="6"/>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N316" s="6"/>
+      <c r="O316" s="6"/>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -6492,8 +7133,10 @@
       <c r="K317" s="6"/>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N317" s="6"/>
+      <c r="O317" s="6"/>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -6507,8 +7150,10 @@
       <c r="K318" s="6"/>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N318" s="6"/>
+      <c r="O318" s="6"/>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -6522,8 +7167,10 @@
       <c r="K319" s="6"/>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N319" s="6"/>
+      <c r="O319" s="6"/>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -6537,8 +7184,10 @@
       <c r="K320" s="6"/>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N320" s="6"/>
+      <c r="O320" s="6"/>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -6552,8 +7201,10 @@
       <c r="K321" s="6"/>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N321" s="6"/>
+      <c r="O321" s="6"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -6567,8 +7218,10 @@
       <c r="K322" s="6"/>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N322" s="6"/>
+      <c r="O322" s="6"/>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -6582,8 +7235,10 @@
       <c r="K323" s="6"/>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N323" s="6"/>
+      <c r="O323" s="6"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -6597,8 +7252,10 @@
       <c r="K324" s="6"/>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N324" s="6"/>
+      <c r="O324" s="6"/>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -6612,8 +7269,10 @@
       <c r="K325" s="6"/>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N325" s="6"/>
+      <c r="O325" s="6"/>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -6627,8 +7286,10 @@
       <c r="K326" s="6"/>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N326" s="6"/>
+      <c r="O326" s="6"/>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -6642,8 +7303,10 @@
       <c r="K327" s="6"/>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N327" s="6"/>
+      <c r="O327" s="6"/>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -6657,8 +7320,10 @@
       <c r="K328" s="6"/>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N328" s="6"/>
+      <c r="O328" s="6"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -6672,8 +7337,10 @@
       <c r="K329" s="6"/>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N329" s="6"/>
+      <c r="O329" s="6"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -6687,8 +7354,10 @@
       <c r="K330" s="6"/>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N330" s="6"/>
+      <c r="O330" s="6"/>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -6702,8 +7371,10 @@
       <c r="K331" s="6"/>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N331" s="6"/>
+      <c r="O331" s="6"/>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -6717,8 +7388,10 @@
       <c r="K332" s="6"/>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N332" s="6"/>
+      <c r="O332" s="6"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -6732,8 +7405,10 @@
       <c r="K333" s="6"/>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N333" s="6"/>
+      <c r="O333" s="6"/>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -6747,8 +7422,10 @@
       <c r="K334" s="6"/>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N334" s="6"/>
+      <c r="O334" s="6"/>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -6762,8 +7439,10 @@
       <c r="K335" s="6"/>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N335" s="6"/>
+      <c r="O335" s="6"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -6777,8 +7456,10 @@
       <c r="K336" s="6"/>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N336" s="6"/>
+      <c r="O336" s="6"/>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -6792,8 +7473,10 @@
       <c r="K337" s="6"/>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N337" s="6"/>
+      <c r="O337" s="6"/>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -6807,8 +7490,10 @@
       <c r="K338" s="6"/>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N338" s="6"/>
+      <c r="O338" s="6"/>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -6822,8 +7507,10 @@
       <c r="K339" s="6"/>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N339" s="6"/>
+      <c r="O339" s="6"/>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -6837,8 +7524,10 @@
       <c r="K340" s="6"/>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N340" s="6"/>
+      <c r="O340" s="6"/>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -6852,8 +7541,10 @@
       <c r="K341" s="6"/>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N341" s="6"/>
+      <c r="O341" s="6"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -6867,8 +7558,10 @@
       <c r="K342" s="6"/>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N342" s="6"/>
+      <c r="O342" s="6"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -6882,8 +7575,10 @@
       <c r="K343" s="6"/>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N343" s="6"/>
+      <c r="O343" s="6"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -6897,8 +7592,10 @@
       <c r="K344" s="6"/>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N344" s="6"/>
+      <c r="O344" s="6"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -6912,8 +7609,10 @@
       <c r="K345" s="6"/>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N345" s="6"/>
+      <c r="O345" s="6"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -6927,8 +7626,10 @@
       <c r="K346" s="6"/>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N346" s="6"/>
+      <c r="O346" s="6"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -6942,8 +7643,10 @@
       <c r="K347" s="6"/>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N347" s="6"/>
+      <c r="O347" s="6"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -6957,8 +7660,10 @@
       <c r="K348" s="6"/>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N348" s="6"/>
+      <c r="O348" s="6"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -6972,8 +7677,10 @@
       <c r="K349" s="6"/>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N349" s="6"/>
+      <c r="O349" s="6"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -6987,8 +7694,10 @@
       <c r="K350" s="6"/>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N350" s="6"/>
+      <c r="O350" s="6"/>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -7002,8 +7711,10 @@
       <c r="K351" s="6"/>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N351" s="6"/>
+      <c r="O351" s="6"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -7017,8 +7728,10 @@
       <c r="K352" s="6"/>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N352" s="6"/>
+      <c r="O352" s="6"/>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -7032,8 +7745,10 @@
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N353" s="6"/>
+      <c r="O353" s="6"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -7047,8 +7762,10 @@
       <c r="K354" s="6"/>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N354" s="6"/>
+      <c r="O354" s="6"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -7062,8 +7779,10 @@
       <c r="K355" s="6"/>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N355" s="6"/>
+      <c r="O355" s="6"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -7077,8 +7796,10 @@
       <c r="K356" s="6"/>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N356" s="6"/>
+      <c r="O356" s="6"/>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -7092,8 +7813,10 @@
       <c r="K357" s="6"/>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N357" s="6"/>
+      <c r="O357" s="6"/>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -7107,8 +7830,10 @@
       <c r="K358" s="6"/>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N358" s="6"/>
+      <c r="O358" s="6"/>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -7122,8 +7847,10 @@
       <c r="K359" s="6"/>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N359" s="6"/>
+      <c r="O359" s="6"/>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -7137,8 +7864,10 @@
       <c r="K360" s="6"/>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N360" s="6"/>
+      <c r="O360" s="6"/>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -7152,8 +7881,10 @@
       <c r="K361" s="6"/>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N361" s="6"/>
+      <c r="O361" s="6"/>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -7167,8 +7898,10 @@
       <c r="K362" s="6"/>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N362" s="6"/>
+      <c r="O362" s="6"/>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -7182,8 +7915,10 @@
       <c r="K363" s="6"/>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N363" s="6"/>
+      <c r="O363" s="6"/>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -7197,8 +7932,10 @@
       <c r="K364" s="6"/>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N364" s="6"/>
+      <c r="O364" s="6"/>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -7212,8 +7949,10 @@
       <c r="K365" s="6"/>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N365" s="6"/>
+      <c r="O365" s="6"/>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -7227,8 +7966,10 @@
       <c r="K366" s="6"/>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N366" s="6"/>
+      <c r="O366" s="6"/>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -7242,8 +7983,10 @@
       <c r="K367" s="6"/>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N367" s="6"/>
+      <c r="O367" s="6"/>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -7257,8 +8000,10 @@
       <c r="K368" s="6"/>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N368" s="6"/>
+      <c r="O368" s="6"/>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -7272,8 +8017,10 @@
       <c r="K369" s="6"/>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N369" s="6"/>
+      <c r="O369" s="6"/>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -7287,8 +8034,10 @@
       <c r="K370" s="6"/>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N370" s="6"/>
+      <c r="O370" s="6"/>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -7302,8 +8051,10 @@
       <c r="K371" s="6"/>
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N371" s="6"/>
+      <c r="O371" s="6"/>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -7317,8 +8068,10 @@
       <c r="K372" s="6"/>
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N372" s="6"/>
+      <c r="O372" s="6"/>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -7332,8 +8085,10 @@
       <c r="K373" s="6"/>
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N373" s="6"/>
+      <c r="O373" s="6"/>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -7347,8 +8102,10 @@
       <c r="K374" s="6"/>
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N374" s="6"/>
+      <c r="O374" s="6"/>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -7362,8 +8119,10 @@
       <c r="K375" s="6"/>
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N375" s="6"/>
+      <c r="O375" s="6"/>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -7377,8 +8136,10 @@
       <c r="K376" s="6"/>
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N376" s="6"/>
+      <c r="O376" s="6"/>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -7392,8 +8153,10 @@
       <c r="K377" s="6"/>
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N377" s="6"/>
+      <c r="O377" s="6"/>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -7407,8 +8170,10 @@
       <c r="K378" s="6"/>
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N378" s="6"/>
+      <c r="O378" s="6"/>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -7422,8 +8187,10 @@
       <c r="K379" s="6"/>
       <c r="L379" s="6"/>
       <c r="M379" s="6"/>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N379" s="6"/>
+      <c r="O379" s="6"/>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -7437,8 +8204,10 @@
       <c r="K380" s="6"/>
       <c r="L380" s="6"/>
       <c r="M380" s="6"/>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N380" s="6"/>
+      <c r="O380" s="6"/>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -7452,8 +8221,10 @@
       <c r="K381" s="6"/>
       <c r="L381" s="6"/>
       <c r="M381" s="6"/>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N381" s="6"/>
+      <c r="O381" s="6"/>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -7467,8 +8238,10 @@
       <c r="K382" s="6"/>
       <c r="L382" s="6"/>
       <c r="M382" s="6"/>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N382" s="6"/>
+      <c r="O382" s="6"/>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -7482,8 +8255,10 @@
       <c r="K383" s="6"/>
       <c r="L383" s="6"/>
       <c r="M383" s="6"/>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N383" s="6"/>
+      <c r="O383" s="6"/>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -7497,8 +8272,10 @@
       <c r="K384" s="6"/>
       <c r="L384" s="6"/>
       <c r="M384" s="6"/>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N384" s="6"/>
+      <c r="O384" s="6"/>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -7512,8 +8289,10 @@
       <c r="K385" s="6"/>
       <c r="L385" s="6"/>
       <c r="M385" s="6"/>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N385" s="6"/>
+      <c r="O385" s="6"/>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -7527,8 +8306,10 @@
       <c r="K386" s="6"/>
       <c r="L386" s="6"/>
       <c r="M386" s="6"/>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N386" s="6"/>
+      <c r="O386" s="6"/>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -7542,8 +8323,10 @@
       <c r="K387" s="6"/>
       <c r="L387" s="6"/>
       <c r="M387" s="6"/>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N387" s="6"/>
+      <c r="O387" s="6"/>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -7557,8 +8340,10 @@
       <c r="K388" s="6"/>
       <c r="L388" s="6"/>
       <c r="M388" s="6"/>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N388" s="6"/>
+      <c r="O388" s="6"/>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -7572,8 +8357,10 @@
       <c r="K389" s="6"/>
       <c r="L389" s="6"/>
       <c r="M389" s="6"/>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N389" s="6"/>
+      <c r="O389" s="6"/>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -7587,8 +8374,10 @@
       <c r="K390" s="6"/>
       <c r="L390" s="6"/>
       <c r="M390" s="6"/>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N390" s="6"/>
+      <c r="O390" s="6"/>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -7602,8 +8391,10 @@
       <c r="K391" s="6"/>
       <c r="L391" s="6"/>
       <c r="M391" s="6"/>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N391" s="6"/>
+      <c r="O391" s="6"/>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -7617,8 +8408,10 @@
       <c r="K392" s="6"/>
       <c r="L392" s="6"/>
       <c r="M392" s="6"/>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N392" s="6"/>
+      <c r="O392" s="6"/>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -7632,8 +8425,10 @@
       <c r="K393" s="6"/>
       <c r="L393" s="6"/>
       <c r="M393" s="6"/>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N393" s="6"/>
+      <c r="O393" s="6"/>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -7647,8 +8442,10 @@
       <c r="K394" s="6"/>
       <c r="L394" s="6"/>
       <c r="M394" s="6"/>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N394" s="6"/>
+      <c r="O394" s="6"/>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -7662,8 +8459,10 @@
       <c r="K395" s="6"/>
       <c r="L395" s="6"/>
       <c r="M395" s="6"/>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N395" s="6"/>
+      <c r="O395" s="6"/>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -7677,8 +8476,10 @@
       <c r="K396" s="6"/>
       <c r="L396" s="6"/>
       <c r="M396" s="6"/>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N396" s="6"/>
+      <c r="O396" s="6"/>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -7692,8 +8493,10 @@
       <c r="K397" s="6"/>
       <c r="L397" s="6"/>
       <c r="M397" s="6"/>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N397" s="6"/>
+      <c r="O397" s="6"/>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -7707,8 +8510,10 @@
       <c r="K398" s="6"/>
       <c r="L398" s="6"/>
       <c r="M398" s="6"/>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N398" s="6"/>
+      <c r="O398" s="6"/>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -7722,8 +8527,10 @@
       <c r="K399" s="6"/>
       <c r="L399" s="6"/>
       <c r="M399" s="6"/>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N399" s="6"/>
+      <c r="O399" s="6"/>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -7737,8 +8544,10 @@
       <c r="K400" s="6"/>
       <c r="L400" s="6"/>
       <c r="M400" s="6"/>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N400" s="6"/>
+      <c r="O400" s="6"/>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -7752,8 +8561,10 @@
       <c r="K401" s="6"/>
       <c r="L401" s="6"/>
       <c r="M401" s="6"/>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N401" s="6"/>
+      <c r="O401" s="6"/>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -7767,8 +8578,10 @@
       <c r="K402" s="6"/>
       <c r="L402" s="6"/>
       <c r="M402" s="6"/>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N402" s="6"/>
+      <c r="O402" s="6"/>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -7782,8 +8595,10 @@
       <c r="K403" s="6"/>
       <c r="L403" s="6"/>
       <c r="M403" s="6"/>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N403" s="6"/>
+      <c r="O403" s="6"/>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -7797,8 +8612,10 @@
       <c r="K404" s="6"/>
       <c r="L404" s="6"/>
       <c r="M404" s="6"/>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N404" s="6"/>
+      <c r="O404" s="6"/>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -7812,8 +8629,10 @@
       <c r="K405" s="6"/>
       <c r="L405" s="6"/>
       <c r="M405" s="6"/>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N405" s="6"/>
+      <c r="O405" s="6"/>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -7827,8 +8646,10 @@
       <c r="K406" s="6"/>
       <c r="L406" s="6"/>
       <c r="M406" s="6"/>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N406" s="6"/>
+      <c r="O406" s="6"/>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -7842,8 +8663,10 @@
       <c r="K407" s="6"/>
       <c r="L407" s="6"/>
       <c r="M407" s="6"/>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N407" s="6"/>
+      <c r="O407" s="6"/>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -7857,8 +8680,10 @@
       <c r="K408" s="6"/>
       <c r="L408" s="6"/>
       <c r="M408" s="6"/>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N408" s="6"/>
+      <c r="O408" s="6"/>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -7872,8 +8697,10 @@
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
       <c r="M409" s="6"/>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N409" s="6"/>
+      <c r="O409" s="6"/>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -7887,8 +8714,10 @@
       <c r="K410" s="6"/>
       <c r="L410" s="6"/>
       <c r="M410" s="6"/>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N410" s="6"/>
+      <c r="O410" s="6"/>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -7902,8 +8731,10 @@
       <c r="K411" s="6"/>
       <c r="L411" s="6"/>
       <c r="M411" s="6"/>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N411" s="6"/>
+      <c r="O411" s="6"/>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -7917,8 +8748,10 @@
       <c r="K412" s="6"/>
       <c r="L412" s="6"/>
       <c r="M412" s="6"/>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N412" s="6"/>
+      <c r="O412" s="6"/>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -7932,8 +8765,10 @@
       <c r="K413" s="6"/>
       <c r="L413" s="6"/>
       <c r="M413" s="6"/>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N413" s="6"/>
+      <c r="O413" s="6"/>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -7947,8 +8782,10 @@
       <c r="K414" s="6"/>
       <c r="L414" s="6"/>
       <c r="M414" s="6"/>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N414" s="6"/>
+      <c r="O414" s="6"/>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -7962,8 +8799,10 @@
       <c r="K415" s="6"/>
       <c r="L415" s="6"/>
       <c r="M415" s="6"/>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N415" s="6"/>
+      <c r="O415" s="6"/>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -7977,8 +8816,10 @@
       <c r="K416" s="6"/>
       <c r="L416" s="6"/>
       <c r="M416" s="6"/>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N416" s="6"/>
+      <c r="O416" s="6"/>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -7992,8 +8833,10 @@
       <c r="K417" s="6"/>
       <c r="L417" s="6"/>
       <c r="M417" s="6"/>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N417" s="6"/>
+      <c r="O417" s="6"/>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -8007,8 +8850,10 @@
       <c r="K418" s="6"/>
       <c r="L418" s="6"/>
       <c r="M418" s="6"/>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N418" s="6"/>
+      <c r="O418" s="6"/>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -8022,8 +8867,10 @@
       <c r="K419" s="6"/>
       <c r="L419" s="6"/>
       <c r="M419" s="6"/>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N419" s="6"/>
+      <c r="O419" s="6"/>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -8037,8 +8884,10 @@
       <c r="K420" s="6"/>
       <c r="L420" s="6"/>
       <c r="M420" s="6"/>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N420" s="6"/>
+      <c r="O420" s="6"/>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -8052,8 +8901,10 @@
       <c r="K421" s="6"/>
       <c r="L421" s="6"/>
       <c r="M421" s="6"/>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N421" s="6"/>
+      <c r="O421" s="6"/>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -8067,8 +8918,10 @@
       <c r="K422" s="6"/>
       <c r="L422" s="6"/>
       <c r="M422" s="6"/>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N422" s="6"/>
+      <c r="O422" s="6"/>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -8082,8 +8935,10 @@
       <c r="K423" s="6"/>
       <c r="L423" s="6"/>
       <c r="M423" s="6"/>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N423" s="6"/>
+      <c r="O423" s="6"/>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -8097,8 +8952,10 @@
       <c r="K424" s="6"/>
       <c r="L424" s="6"/>
       <c r="M424" s="6"/>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N424" s="6"/>
+      <c r="O424" s="6"/>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -8112,8 +8969,10 @@
       <c r="K425" s="6"/>
       <c r="L425" s="6"/>
       <c r="M425" s="6"/>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N425" s="6"/>
+      <c r="O425" s="6"/>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -8127,8 +8986,10 @@
       <c r="K426" s="6"/>
       <c r="L426" s="6"/>
       <c r="M426" s="6"/>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N426" s="6"/>
+      <c r="O426" s="6"/>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -8142,8 +9003,10 @@
       <c r="K427" s="6"/>
       <c r="L427" s="6"/>
       <c r="M427" s="6"/>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N427" s="6"/>
+      <c r="O427" s="6"/>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -8157,8 +9020,10 @@
       <c r="K428" s="6"/>
       <c r="L428" s="6"/>
       <c r="M428" s="6"/>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N428" s="6"/>
+      <c r="O428" s="6"/>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -8172,8 +9037,10 @@
       <c r="K429" s="6"/>
       <c r="L429" s="6"/>
       <c r="M429" s="6"/>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N429" s="6"/>
+      <c r="O429" s="6"/>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -8187,8 +9054,10 @@
       <c r="K430" s="6"/>
       <c r="L430" s="6"/>
       <c r="M430" s="6"/>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N430" s="6"/>
+      <c r="O430" s="6"/>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -8202,8 +9071,10 @@
       <c r="K431" s="6"/>
       <c r="L431" s="6"/>
       <c r="M431" s="6"/>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N431" s="6"/>
+      <c r="O431" s="6"/>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -8217,8 +9088,10 @@
       <c r="K432" s="6"/>
       <c r="L432" s="6"/>
       <c r="M432" s="6"/>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N432" s="6"/>
+      <c r="O432" s="6"/>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -8232,8 +9105,10 @@
       <c r="K433" s="6"/>
       <c r="L433" s="6"/>
       <c r="M433" s="6"/>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N433" s="6"/>
+      <c r="O433" s="6"/>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -8247,8 +9122,10 @@
       <c r="K434" s="6"/>
       <c r="L434" s="6"/>
       <c r="M434" s="6"/>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N434" s="6"/>
+      <c r="O434" s="6"/>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -8262,8 +9139,10 @@
       <c r="K435" s="6"/>
       <c r="L435" s="6"/>
       <c r="M435" s="6"/>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N435" s="6"/>
+      <c r="O435" s="6"/>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -8277,8 +9156,10 @@
       <c r="K436" s="6"/>
       <c r="L436" s="6"/>
       <c r="M436" s="6"/>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N436" s="6"/>
+      <c r="O436" s="6"/>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -8292,8 +9173,10 @@
       <c r="K437" s="6"/>
       <c r="L437" s="6"/>
       <c r="M437" s="6"/>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N437" s="6"/>
+      <c r="O437" s="6"/>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -8307,8 +9190,10 @@
       <c r="K438" s="6"/>
       <c r="L438" s="6"/>
       <c r="M438" s="6"/>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N438" s="6"/>
+      <c r="O438" s="6"/>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -8322,8 +9207,10 @@
       <c r="K439" s="6"/>
       <c r="L439" s="6"/>
       <c r="M439" s="6"/>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N439" s="6"/>
+      <c r="O439" s="6"/>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -8337,8 +9224,10 @@
       <c r="K440" s="6"/>
       <c r="L440" s="6"/>
       <c r="M440" s="6"/>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N440" s="6"/>
+      <c r="O440" s="6"/>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -8352,8 +9241,10 @@
       <c r="K441" s="6"/>
       <c r="L441" s="6"/>
       <c r="M441" s="6"/>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N441" s="6"/>
+      <c r="O441" s="6"/>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -8367,8 +9258,10 @@
       <c r="K442" s="6"/>
       <c r="L442" s="6"/>
       <c r="M442" s="6"/>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N442" s="6"/>
+      <c r="O442" s="6"/>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -8382,8 +9275,10 @@
       <c r="K443" s="6"/>
       <c r="L443" s="6"/>
       <c r="M443" s="6"/>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N443" s="6"/>
+      <c r="O443" s="6"/>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -8397,8 +9292,10 @@
       <c r="K444" s="6"/>
       <c r="L444" s="6"/>
       <c r="M444" s="6"/>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N444" s="6"/>
+      <c r="O444" s="6"/>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -8412,8 +9309,10 @@
       <c r="K445" s="6"/>
       <c r="L445" s="6"/>
       <c r="M445" s="6"/>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N445" s="6"/>
+      <c r="O445" s="6"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -8427,8 +9326,10 @@
       <c r="K446" s="6"/>
       <c r="L446" s="6"/>
       <c r="M446" s="6"/>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N446" s="6"/>
+      <c r="O446" s="6"/>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -8442,8 +9343,10 @@
       <c r="K447" s="6"/>
       <c r="L447" s="6"/>
       <c r="M447" s="6"/>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N447" s="6"/>
+      <c r="O447" s="6"/>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -8457,8 +9360,10 @@
       <c r="K448" s="6"/>
       <c r="L448" s="6"/>
       <c r="M448" s="6"/>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N448" s="6"/>
+      <c r="O448" s="6"/>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -8472,8 +9377,10 @@
       <c r="K449" s="6"/>
       <c r="L449" s="6"/>
       <c r="M449" s="6"/>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N449" s="6"/>
+      <c r="O449" s="6"/>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -8487,8 +9394,10 @@
       <c r="K450" s="6"/>
       <c r="L450" s="6"/>
       <c r="M450" s="6"/>
-    </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N450" s="6"/>
+      <c r="O450" s="6"/>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -8502,8 +9411,10 @@
       <c r="K451" s="6"/>
       <c r="L451" s="6"/>
       <c r="M451" s="6"/>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N451" s="6"/>
+      <c r="O451" s="6"/>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -8517,8 +9428,10 @@
       <c r="K452" s="6"/>
       <c r="L452" s="6"/>
       <c r="M452" s="6"/>
-    </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N452" s="6"/>
+      <c r="O452" s="6"/>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -8532,8 +9445,10 @@
       <c r="K453" s="6"/>
       <c r="L453" s="6"/>
       <c r="M453" s="6"/>
-    </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N453" s="6"/>
+      <c r="O453" s="6"/>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -8547,8 +9462,10 @@
       <c r="K454" s="6"/>
       <c r="L454" s="6"/>
       <c r="M454" s="6"/>
-    </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N454" s="6"/>
+      <c r="O454" s="6"/>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -8562,8 +9479,10 @@
       <c r="K455" s="6"/>
       <c r="L455" s="6"/>
       <c r="M455" s="6"/>
-    </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N455" s="6"/>
+      <c r="O455" s="6"/>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -8577,8 +9496,10 @@
       <c r="K456" s="6"/>
       <c r="L456" s="6"/>
       <c r="M456" s="6"/>
-    </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N456" s="6"/>
+      <c r="O456" s="6"/>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -8592,8 +9513,10 @@
       <c r="K457" s="6"/>
       <c r="L457" s="6"/>
       <c r="M457" s="6"/>
-    </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N457" s="6"/>
+      <c r="O457" s="6"/>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -8607,8 +9530,10 @@
       <c r="K458" s="6"/>
       <c r="L458" s="6"/>
       <c r="M458" s="6"/>
-    </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N458" s="6"/>
+      <c r="O458" s="6"/>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -8622,8 +9547,10 @@
       <c r="K459" s="6"/>
       <c r="L459" s="6"/>
       <c r="M459" s="6"/>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N459" s="6"/>
+      <c r="O459" s="6"/>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -8637,8 +9564,10 @@
       <c r="K460" s="6"/>
       <c r="L460" s="6"/>
       <c r="M460" s="6"/>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N460" s="6"/>
+      <c r="O460" s="6"/>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -8652,8 +9581,10 @@
       <c r="K461" s="6"/>
       <c r="L461" s="6"/>
       <c r="M461" s="6"/>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N461" s="6"/>
+      <c r="O461" s="6"/>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -8667,8 +9598,10 @@
       <c r="K462" s="6"/>
       <c r="L462" s="6"/>
       <c r="M462" s="6"/>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N462" s="6"/>
+      <c r="O462" s="6"/>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -8682,8 +9615,10 @@
       <c r="K463" s="6"/>
       <c r="L463" s="6"/>
       <c r="M463" s="6"/>
-    </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N463" s="6"/>
+      <c r="O463" s="6"/>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -8697,8 +9632,10 @@
       <c r="K464" s="6"/>
       <c r="L464" s="6"/>
       <c r="M464" s="6"/>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N464" s="6"/>
+      <c r="O464" s="6"/>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -8712,8 +9649,10 @@
       <c r="K465" s="6"/>
       <c r="L465" s="6"/>
       <c r="M465" s="6"/>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N465" s="6"/>
+      <c r="O465" s="6"/>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -8727,8 +9666,10 @@
       <c r="K466" s="6"/>
       <c r="L466" s="6"/>
       <c r="M466" s="6"/>
-    </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N466" s="6"/>
+      <c r="O466" s="6"/>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -8742,8 +9683,10 @@
       <c r="K467" s="6"/>
       <c r="L467" s="6"/>
       <c r="M467" s="6"/>
-    </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N467" s="6"/>
+      <c r="O467" s="6"/>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -8757,8 +9700,10 @@
       <c r="K468" s="6"/>
       <c r="L468" s="6"/>
       <c r="M468" s="6"/>
-    </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N468" s="6"/>
+      <c r="O468" s="6"/>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -8772,8 +9717,10 @@
       <c r="K469" s="6"/>
       <c r="L469" s="6"/>
       <c r="M469" s="6"/>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N469" s="6"/>
+      <c r="O469" s="6"/>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -8787,8 +9734,10 @@
       <c r="K470" s="6"/>
       <c r="L470" s="6"/>
       <c r="M470" s="6"/>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N470" s="6"/>
+      <c r="O470" s="6"/>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -8802,8 +9751,10 @@
       <c r="K471" s="6"/>
       <c r="L471" s="6"/>
       <c r="M471" s="6"/>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N471" s="6"/>
+      <c r="O471" s="6"/>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -8817,8 +9768,10 @@
       <c r="K472" s="6"/>
       <c r="L472" s="6"/>
       <c r="M472" s="6"/>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N472" s="6"/>
+      <c r="O472" s="6"/>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -8832,8 +9785,10 @@
       <c r="K473" s="6"/>
       <c r="L473" s="6"/>
       <c r="M473" s="6"/>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N473" s="6"/>
+      <c r="O473" s="6"/>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -8847,8 +9802,10 @@
       <c r="K474" s="6"/>
       <c r="L474" s="6"/>
       <c r="M474" s="6"/>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N474" s="6"/>
+      <c r="O474" s="6"/>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -8862,8 +9819,10 @@
       <c r="K475" s="6"/>
       <c r="L475" s="6"/>
       <c r="M475" s="6"/>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N475" s="6"/>
+      <c r="O475" s="6"/>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -8877,8 +9836,10 @@
       <c r="K476" s="6"/>
       <c r="L476" s="6"/>
       <c r="M476" s="6"/>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N476" s="6"/>
+      <c r="O476" s="6"/>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -8892,8 +9853,10 @@
       <c r="K477" s="6"/>
       <c r="L477" s="6"/>
       <c r="M477" s="6"/>
-    </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N477" s="6"/>
+      <c r="O477" s="6"/>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -8907,8 +9870,10 @@
       <c r="K478" s="6"/>
       <c r="L478" s="6"/>
       <c r="M478" s="6"/>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N478" s="6"/>
+      <c r="O478" s="6"/>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -8922,8 +9887,10 @@
       <c r="K479" s="6"/>
       <c r="L479" s="6"/>
       <c r="M479" s="6"/>
-    </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N479" s="6"/>
+      <c r="O479" s="6"/>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -8937,8 +9904,10 @@
       <c r="K480" s="6"/>
       <c r="L480" s="6"/>
       <c r="M480" s="6"/>
-    </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N480" s="6"/>
+      <c r="O480" s="6"/>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -8952,8 +9921,10 @@
       <c r="K481" s="6"/>
       <c r="L481" s="6"/>
       <c r="M481" s="6"/>
-    </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N481" s="6"/>
+      <c r="O481" s="6"/>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -8967,8 +9938,10 @@
       <c r="K482" s="6"/>
       <c r="L482" s="6"/>
       <c r="M482" s="6"/>
-    </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N482" s="6"/>
+      <c r="O482" s="6"/>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -8982,8 +9955,10 @@
       <c r="K483" s="6"/>
       <c r="L483" s="6"/>
       <c r="M483" s="6"/>
-    </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N483" s="6"/>
+      <c r="O483" s="6"/>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -8997,8 +9972,10 @@
       <c r="K484" s="6"/>
       <c r="L484" s="6"/>
       <c r="M484" s="6"/>
-    </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N484" s="6"/>
+      <c r="O484" s="6"/>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -9012,8 +9989,10 @@
       <c r="K485" s="6"/>
       <c r="L485" s="6"/>
       <c r="M485" s="6"/>
-    </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N485" s="6"/>
+      <c r="O485" s="6"/>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -9027,8 +10006,10 @@
       <c r="K486" s="6"/>
       <c r="L486" s="6"/>
       <c r="M486" s="6"/>
-    </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N486" s="6"/>
+      <c r="O486" s="6"/>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -9042,8 +10023,10 @@
       <c r="K487" s="6"/>
       <c r="L487" s="6"/>
       <c r="M487" s="6"/>
-    </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N487" s="6"/>
+      <c r="O487" s="6"/>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -9057,8 +10040,10 @@
       <c r="K488" s="6"/>
       <c r="L488" s="6"/>
       <c r="M488" s="6"/>
-    </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N488" s="6"/>
+      <c r="O488" s="6"/>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -9072,8 +10057,10 @@
       <c r="K489" s="6"/>
       <c r="L489" s="6"/>
       <c r="M489" s="6"/>
-    </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N489" s="6"/>
+      <c r="O489" s="6"/>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -9087,8 +10074,10 @@
       <c r="K490" s="6"/>
       <c r="L490" s="6"/>
       <c r="M490" s="6"/>
-    </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N490" s="6"/>
+      <c r="O490" s="6"/>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -9102,8 +10091,10 @@
       <c r="K491" s="6"/>
       <c r="L491" s="6"/>
       <c r="M491" s="6"/>
-    </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N491" s="6"/>
+      <c r="O491" s="6"/>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -9117,8 +10108,10 @@
       <c r="K492" s="6"/>
       <c r="L492" s="6"/>
       <c r="M492" s="6"/>
-    </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N492" s="6"/>
+      <c r="O492" s="6"/>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -9132,8 +10125,10 @@
       <c r="K493" s="6"/>
       <c r="L493" s="6"/>
       <c r="M493" s="6"/>
-    </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N493" s="6"/>
+      <c r="O493" s="6"/>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -9147,8 +10142,10 @@
       <c r="K494" s="6"/>
       <c r="L494" s="6"/>
       <c r="M494" s="6"/>
-    </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N494" s="6"/>
+      <c r="O494" s="6"/>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -9162,8 +10159,10 @@
       <c r="K495" s="6"/>
       <c r="L495" s="6"/>
       <c r="M495" s="6"/>
-    </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N495" s="6"/>
+      <c r="O495" s="6"/>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -9177,8 +10176,10 @@
       <c r="K496" s="6"/>
       <c r="L496" s="6"/>
       <c r="M496" s="6"/>
-    </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N496" s="6"/>
+      <c r="O496" s="6"/>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -9192,8 +10193,10 @@
       <c r="K497" s="6"/>
       <c r="L497" s="6"/>
       <c r="M497" s="6"/>
-    </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N497" s="6"/>
+      <c r="O497" s="6"/>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -9207,17 +10210,22 @@
       <c r="K498" s="6"/>
       <c r="L498" s="6"/>
       <c r="M498" s="6"/>
+      <c r="N498" s="6"/>
+      <c r="O498" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="E1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="N2:N1048576" xr:uid="{86B3EB6C-051B-4ACB-AE70-8C4697AC90CE}">
+      <formula1>"Exclude"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'.Data'!$A$2:$A$169</xm:f>
@@ -9250,13 +10258,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -9280,21 +10288,21 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
